--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epgn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epgn-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Epgn</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Epgn</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H2">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I2">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J2">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.016890175584</v>
+        <v>0.2893435210800001</v>
       </c>
       <c r="R2">
-        <v>0.152011580256</v>
+        <v>2.60409168972</v>
       </c>
       <c r="S2">
-        <v>0.0007715051645162229</v>
+        <v>0.02057057471347883</v>
       </c>
       <c r="T2">
-        <v>0.0007715051645162229</v>
+        <v>0.02057057471347883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H3">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I3">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J3">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>1.110074008005333</v>
+        <v>8.124028139907002</v>
       </c>
       <c r="R3">
-        <v>9.990666072047999</v>
+        <v>73.11625325916302</v>
       </c>
       <c r="S3">
-        <v>0.05070567951837211</v>
+        <v>0.5775692754501175</v>
       </c>
       <c r="T3">
-        <v>0.05070567951837211</v>
+        <v>0.5775692754501174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H4">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I4">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J4">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.005634611674666667</v>
+        <v>0.148615729461</v>
       </c>
       <c r="R4">
-        <v>0.050711505072</v>
+        <v>1.337541565149</v>
       </c>
       <c r="S4">
-        <v>0.0002573763656528686</v>
+        <v>0.01056567969818271</v>
       </c>
       <c r="T4">
-        <v>0.0002573763656528686</v>
+        <v>0.01056567969818271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H5">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I5">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J5">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>0.4783614782346667</v>
+        <v>1.343088469953</v>
       </c>
       <c r="R5">
-        <v>4.305253304112</v>
+        <v>12.087796229577</v>
       </c>
       <c r="S5">
-        <v>0.02185047450384517</v>
+        <v>0.09548546867355398</v>
       </c>
       <c r="T5">
-        <v>0.02185047450384517</v>
+        <v>0.09548546867355398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H6">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I6">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J6">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.06140502533333333</v>
+        <v>0.8458110374670001</v>
       </c>
       <c r="R6">
-        <v>0.5526452279999999</v>
+        <v>7.612299337203002</v>
       </c>
       <c r="S6">
-        <v>0.002804843202269233</v>
+        <v>0.06013205021753157</v>
       </c>
       <c r="T6">
-        <v>0.002804843202269233</v>
+        <v>0.06013205021753155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.024176</v>
+        <v>0.176931</v>
       </c>
       <c r="H7">
-        <v>0.072528</v>
+        <v>0.5307930000000001</v>
       </c>
       <c r="I7">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="J7">
-        <v>0.07687374995892815</v>
+        <v>0.7664947277521539</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.010593149568</v>
+        <v>0.03054660635700001</v>
       </c>
       <c r="R7">
-        <v>0.09533834611199998</v>
+        <v>0.274919457213</v>
       </c>
       <c r="S7">
-        <v>0.0004838712042725438</v>
+        <v>0.002171678999289434</v>
       </c>
       <c r="T7">
-        <v>0.0004838712042725438</v>
+        <v>0.002171678999289434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.176931</v>
+        <v>0.05390033333333333</v>
       </c>
       <c r="H8">
-        <v>0.5307930000000001</v>
+        <v>0.161701</v>
       </c>
       <c r="I8">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="J8">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.123610012254</v>
+        <v>0.08814573044888889</v>
       </c>
       <c r="R8">
-        <v>1.112490110286</v>
+        <v>0.7933115740400001</v>
       </c>
       <c r="S8">
-        <v>0.005646226847411478</v>
+        <v>0.006266628425288651</v>
       </c>
       <c r="T8">
-        <v>0.005646226847411478</v>
+        <v>0.006266628425288651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.176931</v>
+        <v>0.05390033333333333</v>
       </c>
       <c r="H9">
-        <v>0.5307930000000001</v>
+        <v>0.161701</v>
       </c>
       <c r="I9">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="J9">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>8.124028139907001</v>
+        <v>2.474907307087889</v>
       </c>
       <c r="R9">
-        <v>73.116253259163</v>
+        <v>22.274165763791</v>
       </c>
       <c r="S9">
-        <v>0.3710873007472328</v>
+        <v>0.1759509439829829</v>
       </c>
       <c r="T9">
-        <v>0.3710873007472328</v>
+        <v>0.1759509439829829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.176931</v>
+        <v>0.05390033333333333</v>
       </c>
       <c r="H10">
-        <v>0.5307930000000001</v>
+        <v>0.161701</v>
       </c>
       <c r="I10">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="J10">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.04123665942300001</v>
+        <v>0.04527435755477777</v>
       </c>
       <c r="R10">
-        <v>0.3711299348070001</v>
+        <v>0.407469217993</v>
       </c>
       <c r="S10">
-        <v>0.001883597689912628</v>
+        <v>0.003218733052010561</v>
       </c>
       <c r="T10">
-        <v>0.001883597689912628</v>
+        <v>0.003218733052010561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.176931</v>
+        <v>0.05390033333333333</v>
       </c>
       <c r="H11">
-        <v>0.5307930000000001</v>
+        <v>0.161701</v>
       </c>
       <c r="I11">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="J11">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>3.500867583783001</v>
+        <v>0.4091590293765556</v>
       </c>
       <c r="R11">
-        <v>31.50780825404701</v>
+        <v>3.682431264389</v>
       </c>
       <c r="S11">
-        <v>0.1599117432346058</v>
+        <v>0.0290887328393222</v>
       </c>
       <c r="T11">
-        <v>0.1599117432346058</v>
+        <v>0.0290887328393222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.176931</v>
+        <v>0.05390033333333333</v>
       </c>
       <c r="H12">
-        <v>0.5307930000000001</v>
+        <v>0.161701</v>
       </c>
       <c r="I12">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="J12">
-        <v>0.5625971812534382</v>
+        <v>0.2335052722478462</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>0.44938999575</v>
+        <v>0.2576682257856667</v>
       </c>
       <c r="R12">
-        <v>4.04450996175</v>
+        <v>2.319014032071</v>
       </c>
       <c r="S12">
-        <v>0.02052712246114733</v>
+        <v>0.01831865275582962</v>
       </c>
       <c r="T12">
-        <v>0.02052712246114733</v>
+        <v>0.01831865275582962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,433 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05390033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.161701</v>
+      </c>
+      <c r="I13">
+        <v>0.2335052722478462</v>
+      </c>
+      <c r="J13">
+        <v>0.2335052722478462</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.176931</v>
-      </c>
-      <c r="H13">
-        <v>0.5307930000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.5625971812534382</v>
-      </c>
-      <c r="J13">
-        <v>0.5625971812534382</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.077525502408</v>
+        <v>0.009305730849</v>
       </c>
       <c r="R13">
-        <v>0.6977295216720001</v>
+        <v>0.083751577641</v>
       </c>
       <c r="S13">
-        <v>0.003541190273128122</v>
+        <v>0.0006615811924122977</v>
       </c>
       <c r="T13">
-        <v>0.003541190273128122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.340148</v>
-      </c>
-      <c r="I14">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J14">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.6986340000000001</v>
-      </c>
-      <c r="N14">
-        <v>2.095902</v>
-      </c>
-      <c r="O14">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="P14">
-        <v>0.0100360027308206</v>
-      </c>
-      <c r="Q14">
-        <v>0.07921298594400002</v>
-      </c>
-      <c r="R14">
-        <v>0.7129168734960001</v>
-      </c>
-      <c r="S14">
-        <v>0.0036182707188929</v>
-      </c>
-      <c r="T14">
-        <v>0.0036182707188929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.340148</v>
-      </c>
-      <c r="I15">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J15">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>45.91636366666666</v>
-      </c>
-      <c r="N15">
-        <v>137.749091</v>
-      </c>
-      <c r="O15">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="P15">
-        <v>0.6595968005393645</v>
-      </c>
-      <c r="Q15">
-        <v>5.206119756163111</v>
-      </c>
-      <c r="R15">
-        <v>46.855077805468</v>
-      </c>
-      <c r="S15">
-        <v>0.2378038202737597</v>
-      </c>
-      <c r="T15">
-        <v>0.2378038202737597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.340148</v>
-      </c>
-      <c r="I16">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J16">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.2330663333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.699199</v>
-      </c>
-      <c r="O16">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="P16">
-        <v>0.003348039685723394</v>
-      </c>
-      <c r="Q16">
-        <v>0.02642568238355556</v>
-      </c>
-      <c r="R16">
-        <v>0.237831141452</v>
-      </c>
-      <c r="S16">
-        <v>0.001207065630157897</v>
-      </c>
-      <c r="T16">
-        <v>0.001207065630157897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.340148</v>
-      </c>
-      <c r="I17">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J17">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>19.78662633333333</v>
-      </c>
-      <c r="N17">
-        <v>59.35987900000001</v>
-      </c>
-      <c r="O17">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="P17">
-        <v>0.284238436599221</v>
-      </c>
-      <c r="Q17">
-        <v>2.243460458010222</v>
-      </c>
-      <c r="R17">
-        <v>20.191144122092</v>
-      </c>
-      <c r="S17">
-        <v>0.10247621886077</v>
-      </c>
-      <c r="T17">
-        <v>0.10247621886077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.340148</v>
-      </c>
-      <c r="I18">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J18">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.539916666666667</v>
-      </c>
-      <c r="N18">
-        <v>7.61975</v>
-      </c>
-      <c r="O18">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="P18">
-        <v>0.03648635852638638</v>
-      </c>
-      <c r="Q18">
-        <v>0.2879825247777778</v>
-      </c>
-      <c r="R18">
-        <v>2.591842723</v>
-      </c>
-      <c r="S18">
-        <v>0.01315439286296982</v>
-      </c>
-      <c r="T18">
-        <v>0.01315439286296982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1133826666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.340148</v>
-      </c>
-      <c r="I19">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="J19">
-        <v>0.3605290687876337</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N19">
-        <v>1.314504</v>
-      </c>
-      <c r="O19">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P19">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q19">
-        <v>0.049680656288</v>
-      </c>
-      <c r="R19">
-        <v>0.447125906592</v>
-      </c>
-      <c r="S19">
-        <v>0.002269300441083406</v>
-      </c>
-      <c r="T19">
-        <v>0.002269300441083406</v>
+        <v>0.0006615811924122977</v>
       </c>
     </row>
   </sheetData>
